--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H2">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1353843333333334</v>
+        <v>0.1320293333333333</v>
       </c>
       <c r="N2">
-        <v>0.406153</v>
+        <v>0.396088</v>
       </c>
       <c r="O2">
-        <v>0.05860584767036443</v>
+        <v>0.02700478969442551</v>
       </c>
       <c r="P2">
-        <v>0.05860584767036443</v>
+        <v>0.02700478969442551</v>
       </c>
       <c r="Q2">
-        <v>0.1137476604611111</v>
+        <v>0.1880377168755555</v>
       </c>
       <c r="R2">
-        <v>1.02372894415</v>
+        <v>1.69233945188</v>
       </c>
       <c r="S2">
-        <v>0.05860584767036443</v>
+        <v>0.02700478969442551</v>
       </c>
       <c r="T2">
-        <v>0.05860584767036443</v>
+        <v>0.02700478969442551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H3">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5252536666666667</v>
+        <v>0.5252536666666666</v>
       </c>
       <c r="N3">
         <v>1.575761</v>
       </c>
       <c r="O3">
-        <v>0.2273744355720655</v>
+        <v>0.1074334350287755</v>
       </c>
       <c r="P3">
-        <v>0.2273744355720655</v>
+        <v>0.1074334350287755</v>
       </c>
       <c r="Q3">
-        <v>0.4413093765055555</v>
+        <v>0.748072400026111</v>
       </c>
       <c r="R3">
-        <v>3.97178438855</v>
+        <v>6.732651600234998</v>
       </c>
       <c r="S3">
-        <v>0.2273744355720655</v>
+        <v>0.1074334350287755</v>
       </c>
       <c r="T3">
-        <v>0.2273744355720655</v>
+        <v>0.1074334350287755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H4">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.390367</v>
+        <v>1.687203666666667</v>
       </c>
       <c r="N4">
-        <v>1.171101</v>
+        <v>5.061611</v>
       </c>
       <c r="O4">
-        <v>0.168984020338669</v>
+        <v>0.3450943744066743</v>
       </c>
       <c r="P4">
-        <v>0.168984020338669</v>
+        <v>0.3450943744066743</v>
       </c>
       <c r="Q4">
-        <v>0.3279798472833332</v>
+        <v>2.402935146109444</v>
       </c>
       <c r="R4">
-        <v>2.95181862555</v>
+        <v>21.626416314985</v>
       </c>
       <c r="S4">
-        <v>0.168984020338669</v>
+        <v>0.3450943744066743</v>
       </c>
       <c r="T4">
-        <v>0.168984020338669</v>
+        <v>0.3450943744066743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H5">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3421903333333333</v>
+        <v>0.505857</v>
       </c>
       <c r="N5">
-        <v>1.026571</v>
+        <v>1.517571</v>
       </c>
       <c r="O5">
-        <v>0.148129063798159</v>
+        <v>0.1034661128369428</v>
       </c>
       <c r="P5">
-        <v>0.148129063798159</v>
+        <v>0.1034661128369428</v>
       </c>
       <c r="Q5">
-        <v>0.2875026148944444</v>
+        <v>0.7204474410649999</v>
       </c>
       <c r="R5">
-        <v>2.587523534049999</v>
+        <v>6.484026969584999</v>
       </c>
       <c r="S5">
-        <v>0.148129063798159</v>
+        <v>0.1034661128369428</v>
       </c>
       <c r="T5">
-        <v>0.148129063798159</v>
+        <v>0.1034661128369428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H6">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.916887</v>
+        <v>2.038764333333333</v>
       </c>
       <c r="N6">
-        <v>2.750661</v>
+        <v>6.116293000000001</v>
       </c>
       <c r="O6">
-        <v>0.3969066326207421</v>
+        <v>0.4170012880331818</v>
       </c>
       <c r="P6">
-        <v>0.3969066326207421</v>
+        <v>0.4170012880331818</v>
       </c>
       <c r="Q6">
-        <v>0.7703531759499999</v>
+        <v>2.903631949117222</v>
       </c>
       <c r="R6">
-        <v>6.933178583549999</v>
+        <v>26.132687542055</v>
       </c>
       <c r="S6">
-        <v>0.3969066326207421</v>
+        <v>0.4170012880331818</v>
       </c>
       <c r="T6">
-        <v>0.3969066326207421</v>
+        <v>0.4170012880331818</v>
       </c>
     </row>
   </sheetData>
